--- a/TSM.xlsx
+++ b/TSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmus/Desktop/Financial Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22215614-0EFF-7646-A8F6-6E5001BC2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771D641-54BF-4B2B-B37E-DF5280C764D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="4200" windowWidth="18340" windowHeight="16140" xr2:uid="{F8745C95-78DE-E443-8F9A-05CED30D5E0E}"/>
+    <workbookView xWindow="8805" yWindow="780" windowWidth="18690" windowHeight="14445" activeTab="1" xr2:uid="{F8745C95-78DE-E443-8F9A-05CED30D5E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,72 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kipp</author>
+  </authors>
+  <commentList>
+    <comment ref="Z10" authorId="0" shapeId="0" xr:uid="{6E972523-FA12-44AB-8E9D-B2477CED2A56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>Kipp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t xml:space="preserve">
+first half of 2025, new 4nm tech in Arizona fab
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{4F551DF6-6B5E-4588-9406-275ABB744914}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>Kipp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t xml:space="preserve">
+guidance 25-25.8bn
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Price</t>
   </si>
@@ -73,19 +137,208 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>3nm</t>
+  </si>
+  <si>
+    <t>5nm</t>
+  </si>
+  <si>
+    <t>7nm</t>
+  </si>
+  <si>
+    <t>16nm</t>
+  </si>
+  <si>
+    <t>20nm</t>
+  </si>
+  <si>
+    <t>28nm</t>
+  </si>
+  <si>
+    <t>40/45nm</t>
+  </si>
+  <si>
+    <t>65nm</t>
+  </si>
+  <si>
+    <t>90nm</t>
+  </si>
+  <si>
+    <t>0.11/0.13um</t>
+  </si>
+  <si>
+    <t>0.15/0.18um</t>
+  </si>
+  <si>
+    <t>0.25um+</t>
+  </si>
+  <si>
+    <t>HPC</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Internet of Things</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>Digital Consumer</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>OpInc</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Pretax</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>4nm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="186"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,9 +361,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,6 +387,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>839390</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032B71D2-FDEA-C2C6-F763-0E48A5641A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11495484" y="29766"/>
+          <a:ext cx="5953" cy="6447234"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,15 +761,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1BEB18-EC38-BD4F-94A3-2D5879B26163}">
-  <dimension ref="I1:N8"/>
+  <dimension ref="I1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
         <v>7</v>
       </c>
@@ -464,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="9:14" x14ac:dyDescent="0.25">
       <c r="L2" s="1">
         <v>25932</v>
       </c>
@@ -476,7 +792,7 @@
         <v>5186.3999999999996</v>
       </c>
     </row>
-    <row r="3" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>0</v>
       </c>
@@ -484,7 +800,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>1</v>
       </c>
@@ -495,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>2</v>
       </c>
@@ -504,7 +820,7 @@
         <v>1021642</v>
       </c>
     </row>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>3</v>
       </c>
@@ -516,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>4</v>
       </c>
@@ -528,13 +844,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="1">
         <f>J5-J6+J7</f>
         <v>965501</v>
+      </c>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f>+J8/1.41</f>
+        <v>684752.48226950364</v>
       </c>
     </row>
   </sheetData>
@@ -543,32 +865,1886 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E551CAD4-B555-B24B-B808-54335B8F5C59}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E551CAD4-B555-B24B-B808-54335B8F5C59}">
+  <dimension ref="A1:CM54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="11" style="2"/>
+    <col min="27" max="27" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="2">
+        <v>2022</v>
+      </c>
+      <c r="X2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>+Y2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AA2" s="2">
+        <f t="shared" ref="AA2:AI2" si="0">+Z2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AB2" s="2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AC2" s="2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AE2" s="2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AF2" s="2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AG2" s="2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AH2" s="2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AI2" s="2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="N13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M15" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C23" s="5">
+        <v>17567</v>
+      </c>
+      <c r="D23" s="5">
+        <v>18158</v>
+      </c>
+      <c r="E23" s="5">
+        <v>20225</v>
+      </c>
+      <c r="F23" s="5">
+        <v>19931</v>
+      </c>
+      <c r="G23" s="5">
+        <v>16719</v>
+      </c>
+      <c r="H23" s="5">
+        <v>15677</v>
+      </c>
+      <c r="I23" s="5">
+        <v>17278</v>
+      </c>
+      <c r="J23" s="5">
+        <v>19624</v>
+      </c>
+      <c r="K23" s="5">
+        <v>18873</v>
+      </c>
+      <c r="L23" s="5">
+        <v>20822</v>
+      </c>
+      <c r="M23" s="5">
+        <v>23504</v>
+      </c>
+      <c r="N23" s="5">
+        <v>26884</v>
+      </c>
+      <c r="O23" s="5">
+        <v>25500</v>
+      </c>
+      <c r="P23" s="5">
+        <f>+L23*1.25</f>
+        <v>26027.5</v>
+      </c>
+      <c r="Q23" s="5">
+        <f>+M23*0.9</f>
+        <v>21153.600000000002</v>
+      </c>
+      <c r="R23" s="5">
+        <f>+N23*0.95</f>
+        <v>25539.8</v>
+      </c>
+      <c r="X23" s="5">
+        <f>+SUM(G23:J23)</f>
+        <v>69298</v>
+      </c>
+      <c r="Y23" s="5">
+        <f>+SUM(K23:N23)</f>
+        <v>90083</v>
+      </c>
+      <c r="Z23" s="5">
+        <f>+SUM(O23:R23)</f>
+        <v>98220.900000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="6">
+        <v>7794</v>
+      </c>
+      <c r="D24" s="6">
+        <v>7434</v>
+      </c>
+      <c r="E24" s="6">
+        <v>8004</v>
+      </c>
+      <c r="F24" s="6">
+        <v>7531</v>
+      </c>
+      <c r="G24" s="6">
+        <v>7302</v>
+      </c>
+      <c r="H24" s="6">
+        <v>7194</v>
+      </c>
+      <c r="I24" s="6">
+        <v>7903</v>
+      </c>
+      <c r="J24" s="6">
+        <v>9216</v>
+      </c>
+      <c r="K24" s="6">
+        <v>8858</v>
+      </c>
+      <c r="L24" s="6">
+        <v>9750</v>
+      </c>
+      <c r="M24" s="6">
+        <v>9911</v>
+      </c>
+      <c r="N24" s="6">
+        <v>11023</v>
+      </c>
+      <c r="O24" s="6">
+        <f>+O23-O25</f>
+        <v>10710.000000000002</v>
+      </c>
+      <c r="P24" s="6">
+        <f>+P23-P25</f>
+        <v>10931.550000000001</v>
+      </c>
+      <c r="Q24" s="6">
+        <f>+Q23-Q25</f>
+        <v>8884.5120000000024</v>
+      </c>
+      <c r="R24" s="6">
+        <f>+R23-R25</f>
+        <v>10726.716</v>
+      </c>
+      <c r="X24" s="6">
+        <f>+X23-X25</f>
+        <v>29105.160000000003</v>
+      </c>
+      <c r="Y24" s="6">
+        <f>+SUM(K24:N24)</f>
+        <v>39542</v>
+      </c>
+      <c r="Z24" s="6">
+        <f>+Z23-Z25</f>
+        <v>43217.195999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" ref="C25:N25" si="1">+C23-C24</f>
+        <v>9773</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
+        <v>10724</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>12221</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="1"/>
+        <v>12400</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="1"/>
+        <v>9417</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="1"/>
+        <v>8483</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="1"/>
+        <v>9375</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="1"/>
+        <v>10408</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="1"/>
+        <v>10015</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="1"/>
+        <v>11072</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="1"/>
+        <v>13593</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="1"/>
+        <v>15861</v>
+      </c>
+      <c r="O25" s="5">
+        <f>+O23*0.58</f>
+        <v>14789.999999999998</v>
+      </c>
+      <c r="P25" s="5">
+        <f>+P23*0.58</f>
+        <v>15095.949999999999</v>
+      </c>
+      <c r="Q25" s="5">
+        <f>+Q23*0.58</f>
+        <v>12269.088</v>
+      </c>
+      <c r="R25" s="5">
+        <f>+R23*0.58</f>
+        <v>14813.083999999999</v>
+      </c>
+      <c r="X25" s="2">
+        <f>+X23*0.58</f>
+        <v>40192.839999999997</v>
+      </c>
+      <c r="Y25" s="6">
+        <f>+SUM(K25:N25)</f>
+        <v>50541</v>
+      </c>
+      <c r="Z25" s="5">
+        <f>+Z23*0.56</f>
+        <v>55003.704000000012</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1290</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1348</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1417</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1421</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1287</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1358</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1616</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1582</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1468</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1486</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1633</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1772</v>
+      </c>
+      <c r="O26" s="6">
+        <v>1772</v>
+      </c>
+      <c r="P26" s="6">
+        <v>2000</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>+P26*1.02</f>
+        <v>2040</v>
+      </c>
+      <c r="R26" s="6">
+        <f>+Q26*1.02</f>
+        <v>2080.8000000000002</v>
+      </c>
+      <c r="X26" s="6">
+        <f t="shared" ref="X26:X27" si="2">+SUM(G26:J26)</f>
+        <v>5843</v>
+      </c>
+      <c r="Y26" s="6">
+        <f>+SUM(K26:N26)</f>
+        <v>6359</v>
+      </c>
+      <c r="Z26" s="6">
+        <f>+SUM(O26:R26)</f>
+        <v>7892.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="6">
+        <v>449</v>
+      </c>
+      <c r="D27" s="6">
+        <v>466</v>
+      </c>
+      <c r="E27" s="6">
+        <v>568</v>
+      </c>
+      <c r="F27" s="6">
+        <v>635</v>
+      </c>
+      <c r="G27" s="6">
+        <v>531</v>
+      </c>
+      <c r="H27" s="6">
+        <v>539</v>
+      </c>
+      <c r="I27" s="6">
+        <v>556</v>
+      </c>
+      <c r="J27" s="6">
+        <v>665</v>
+      </c>
+      <c r="K27" s="6">
+        <v>613</v>
+      </c>
+      <c r="L27" s="6">
+        <v>688</v>
+      </c>
+      <c r="M27" s="6">
+        <v>814</v>
+      </c>
+      <c r="N27" s="6">
+        <v>901</v>
+      </c>
+      <c r="O27" s="6">
+        <v>901</v>
+      </c>
+      <c r="P27" s="6">
+        <v>901</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>+P27*1.02</f>
+        <v>919.02</v>
+      </c>
+      <c r="R27" s="6">
+        <f>+Q27*1.02</f>
+        <v>937.40039999999999</v>
+      </c>
+      <c r="X27" s="6">
+        <f t="shared" si="2"/>
+        <v>2291</v>
+      </c>
+      <c r="Y27" s="6">
+        <f>+SUM(K27:N27)</f>
+        <v>3016</v>
+      </c>
+      <c r="Z27" s="6">
+        <f>+SUM(O27:R27)</f>
+        <v>3658.4204</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" ref="C28:R28" si="3">+C27+C26</f>
+        <v>1739</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="3"/>
+        <v>1814</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="3"/>
+        <v>1985</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="3"/>
+        <v>2056</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="3"/>
+        <v>1818</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="3"/>
+        <v>1897</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="3"/>
+        <v>2172</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="3"/>
+        <v>2247</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="3"/>
+        <v>2081</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="3"/>
+        <v>2174</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="3"/>
+        <v>2447</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="3"/>
+        <v>2673</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="3"/>
+        <v>2673</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="3"/>
+        <v>2901</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="3"/>
+        <v>2959.02</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" si="3"/>
+        <v>3018.2004000000002</v>
+      </c>
+      <c r="X28" s="6">
+        <f>+X27+X26</f>
+        <v>8134</v>
+      </c>
+      <c r="Y28" s="6">
+        <f>+Y27+Y26</f>
+        <v>9375</v>
+      </c>
+      <c r="Z28" s="6">
+        <f>+Z27+Z26</f>
+        <v>11551.2204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" ref="C29:R29" si="4">+C25-C28</f>
+        <v>8034</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="4"/>
+        <v>8910</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="4"/>
+        <v>10236</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="4"/>
+        <v>10344</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="4"/>
+        <v>7599</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="4"/>
+        <v>6586</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="4"/>
+        <v>7203</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="4"/>
+        <v>8161</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="4"/>
+        <v>7934</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="4"/>
+        <v>8898</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="4"/>
+        <v>11146</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="4"/>
+        <v>13188</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="4"/>
+        <v>12116.999999999998</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="4"/>
+        <v>12194.949999999999</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="4"/>
+        <v>9310.0679999999993</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="4"/>
+        <v>11794.883599999999</v>
+      </c>
+      <c r="X29" s="6">
+        <f>+X25-X28</f>
+        <v>32058.839999999997</v>
+      </c>
+      <c r="Y29" s="6">
+        <f>+Y25-Y28</f>
+        <v>41166</v>
+      </c>
+      <c r="Z29" s="6">
+        <f>+Z25-Z28</f>
+        <v>43452.483600000014</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="6">
+        <f>64+61-17</f>
+        <v>108</v>
+      </c>
+      <c r="D30" s="6">
+        <f>76+22+33</f>
+        <v>131</v>
+      </c>
+      <c r="E30" s="6">
+        <f>107+69+34</f>
+        <v>210</v>
+      </c>
+      <c r="F30" s="6">
+        <f>234+20+55</f>
+        <v>309</v>
+      </c>
+      <c r="G30" s="6">
+        <f>350+44+34</f>
+        <v>428</v>
+      </c>
+      <c r="H30" s="6">
+        <f>348+30+37</f>
+        <v>415</v>
+      </c>
+      <c r="I30" s="6">
+        <f>395+37+7</f>
+        <v>439</v>
+      </c>
+      <c r="J30" s="6">
+        <f>455+71+41</f>
+        <v>567</v>
+      </c>
+      <c r="K30" s="6">
+        <f>531+28</f>
+        <v>559</v>
+      </c>
+      <c r="L30" s="6">
+        <f>567+8</f>
+        <v>575</v>
+      </c>
+      <c r="M30" s="6">
+        <f>618+48+58</f>
+        <v>724</v>
+      </c>
+      <c r="N30" s="6">
+        <f>673+40</f>
+        <v>713</v>
+      </c>
+      <c r="O30" s="6">
+        <f>+AVERAGE(K30:N30)</f>
+        <v>642.75</v>
+      </c>
+      <c r="P30" s="6">
+        <v>800</v>
+      </c>
+      <c r="Q30" s="2">
+        <f>+P30*1.02</f>
+        <v>816</v>
+      </c>
+      <c r="R30" s="6">
+        <f>+Q30*1.02</f>
+        <v>832.32</v>
+      </c>
+      <c r="X30" s="6">
+        <f t="shared" ref="X30:X32" si="5">+SUM(G30:J30)</f>
+        <v>1849</v>
+      </c>
+      <c r="Y30" s="6">
+        <f>+SUM(K30:N30)</f>
+        <v>2571</v>
+      </c>
+      <c r="Z30" s="6">
+        <f>+SUM(O30:R30)</f>
+        <v>3091.07</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" ref="C31:R31" si="6">+C29+C30</f>
+        <v>8142</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="6"/>
+        <v>9041</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="6"/>
+        <v>10446</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="6"/>
+        <v>10653</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="6"/>
+        <v>8027</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="6"/>
+        <v>7001</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="6"/>
+        <v>7642</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="6"/>
+        <v>8728</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="6"/>
+        <v>8493</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="6"/>
+        <v>9473</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="6"/>
+        <v>11870</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="6"/>
+        <v>13901</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="6"/>
+        <v>12759.749999999998</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" si="6"/>
+        <v>12994.949999999999</v>
+      </c>
+      <c r="Q31" s="6">
+        <f t="shared" si="6"/>
+        <v>10126.067999999999</v>
+      </c>
+      <c r="R31" s="6">
+        <f t="shared" si="6"/>
+        <v>12627.203599999999</v>
+      </c>
+      <c r="X31" s="6">
+        <f>+X29+X30</f>
+        <v>33907.839999999997</v>
+      </c>
+      <c r="Y31" s="6">
+        <f>+Y29+Y30</f>
+        <v>43737</v>
+      </c>
+      <c r="Z31" s="6">
+        <f>+Z29+Z30</f>
+        <v>46543.553600000014</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="6">
+        <v>857</v>
+      </c>
+      <c r="D32" s="6">
+        <v>979</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1178</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1227</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1227</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1074</v>
+      </c>
+      <c r="I32" s="6">
+        <v>984</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1254</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1316</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1813</v>
+      </c>
+      <c r="M32" s="6">
+        <v>1828</v>
+      </c>
+      <c r="N32" s="6">
+        <v>2301</v>
+      </c>
+      <c r="O32" s="6">
+        <f>+AVERAGE(K32:N32)</f>
+        <v>1814.5</v>
+      </c>
+      <c r="P32" s="6">
+        <v>2300</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>2300</v>
+      </c>
+      <c r="R32" s="6">
+        <v>2300</v>
+      </c>
+      <c r="X32" s="6">
+        <f t="shared" si="5"/>
+        <v>4539</v>
+      </c>
+      <c r="Y32" s="6">
+        <f>+SUM(K32:N32)</f>
+        <v>7258</v>
+      </c>
+      <c r="Z32" s="6">
+        <f>+SUM(O32:R32)</f>
+        <v>8714.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" ref="C33:R33" si="7">+C31-C32</f>
+        <v>7285</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="7"/>
+        <v>8062</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="7"/>
+        <v>9268</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="7"/>
+        <v>9426</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="7"/>
+        <v>6800</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="7"/>
+        <v>5927</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="7"/>
+        <v>6658</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="7"/>
+        <v>7474</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="7"/>
+        <v>7177</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="7"/>
+        <v>7660</v>
+      </c>
+      <c r="M33" s="5">
+        <f t="shared" si="7"/>
+        <v>10042</v>
+      </c>
+      <c r="N33" s="5">
+        <f t="shared" si="7"/>
+        <v>11600</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="7"/>
+        <v>10945.249999999998</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="7"/>
+        <v>10694.949999999999</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="7"/>
+        <v>7826.0679999999993</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" si="7"/>
+        <v>10327.203599999999</v>
+      </c>
+      <c r="X33" s="5">
+        <f>+X31-X32</f>
+        <v>29368.839999999997</v>
+      </c>
+      <c r="Y33" s="5">
+        <f>+Y31-Y32</f>
+        <v>36479</v>
+      </c>
+      <c r="Z33" s="5">
+        <f>+Z31-Z32</f>
+        <v>37829.053600000014</v>
+      </c>
+      <c r="AA33" s="5">
+        <f>+Z33*(1+$AC39)</f>
+        <v>37450.763064000013</v>
+      </c>
+      <c r="AB33" s="5">
+        <f t="shared" ref="AB33:CM33" si="8">+AA33*(1+$AC39)</f>
+        <v>37076.255433360013</v>
+      </c>
+      <c r="AC33" s="5">
+        <f t="shared" si="8"/>
+        <v>36705.492879026409</v>
+      </c>
+      <c r="AD33" s="5">
+        <f t="shared" si="8"/>
+        <v>36338.437950236148</v>
+      </c>
+      <c r="AE33" s="5">
+        <f t="shared" si="8"/>
+        <v>35975.053570733784</v>
+      </c>
+      <c r="AF33" s="5">
+        <f t="shared" si="8"/>
+        <v>35615.303035026445</v>
+      </c>
+      <c r="AG33" s="5">
+        <f t="shared" si="8"/>
+        <v>35259.150004676179</v>
+      </c>
+      <c r="AH33" s="5">
+        <f t="shared" si="8"/>
+        <v>34906.558504629415</v>
+      </c>
+      <c r="AI33" s="5">
+        <f t="shared" si="8"/>
+        <v>34557.492919583121</v>
+      </c>
+      <c r="AJ33" s="5">
+        <f t="shared" si="8"/>
+        <v>34211.917990387286</v>
+      </c>
+      <c r="AK33" s="5">
+        <f t="shared" si="8"/>
+        <v>33869.798810483415</v>
+      </c>
+      <c r="AL33" s="5">
+        <f t="shared" si="8"/>
+        <v>33531.100822378583</v>
+      </c>
+      <c r="AM33" s="5">
+        <f t="shared" si="8"/>
+        <v>33195.789814154799</v>
+      </c>
+      <c r="AN33" s="5">
+        <f t="shared" si="8"/>
+        <v>32863.831916013252</v>
+      </c>
+      <c r="AO33" s="5">
+        <f t="shared" si="8"/>
+        <v>32535.193596853118</v>
+      </c>
+      <c r="AP33" s="5">
+        <f t="shared" si="8"/>
+        <v>32209.841660884587</v>
+      </c>
+      <c r="AQ33" s="5">
+        <f t="shared" si="8"/>
+        <v>31887.743244275742</v>
+      </c>
+      <c r="AR33" s="5">
+        <f t="shared" si="8"/>
+        <v>31568.865811832984</v>
+      </c>
+      <c r="AS33" s="5">
+        <f t="shared" si="8"/>
+        <v>31253.177153714652</v>
+      </c>
+      <c r="AT33" s="5">
+        <f t="shared" si="8"/>
+        <v>30940.645382177507</v>
+      </c>
+      <c r="AU33" s="5">
+        <f t="shared" si="8"/>
+        <v>30631.238928355731</v>
+      </c>
+      <c r="AV33" s="5">
+        <f t="shared" si="8"/>
+        <v>30324.926539072174</v>
+      </c>
+      <c r="AW33" s="5">
+        <f t="shared" si="8"/>
+        <v>30021.677273681453</v>
+      </c>
+      <c r="AX33" s="5">
+        <f t="shared" si="8"/>
+        <v>29721.460500944639</v>
+      </c>
+      <c r="AY33" s="5">
+        <f t="shared" si="8"/>
+        <v>29424.245895935193</v>
+      </c>
+      <c r="AZ33" s="5">
+        <f t="shared" si="8"/>
+        <v>29130.00343697584</v>
+      </c>
+      <c r="BA33" s="5">
+        <f t="shared" si="8"/>
+        <v>28838.703402606079</v>
+      </c>
+      <c r="BB33" s="5">
+        <f t="shared" si="8"/>
+        <v>28550.316368580017</v>
+      </c>
+      <c r="BC33" s="5">
+        <f t="shared" si="8"/>
+        <v>28264.813204894217</v>
+      </c>
+      <c r="BD33" s="5">
+        <f t="shared" si="8"/>
+        <v>27982.165072845273</v>
+      </c>
+      <c r="BE33" s="5">
+        <f t="shared" si="8"/>
+        <v>27702.343422116821</v>
+      </c>
+      <c r="BF33" s="5">
+        <f t="shared" si="8"/>
+        <v>27425.319987895651</v>
+      </c>
+      <c r="BG33" s="5">
+        <f t="shared" si="8"/>
+        <v>27151.066788016695</v>
+      </c>
+      <c r="BH33" s="5">
+        <f t="shared" si="8"/>
+        <v>26879.556120136527</v>
+      </c>
+      <c r="BI33" s="5">
+        <f t="shared" si="8"/>
+        <v>26610.760558935162</v>
+      </c>
+      <c r="BJ33" s="5">
+        <f t="shared" si="8"/>
+        <v>26344.652953345809</v>
+      </c>
+      <c r="BK33" s="5">
+        <f t="shared" si="8"/>
+        <v>26081.206423812349</v>
+      </c>
+      <c r="BL33" s="5">
+        <f t="shared" si="8"/>
+        <v>25820.394359574224</v>
+      </c>
+      <c r="BM33" s="5">
+        <f t="shared" si="8"/>
+        <v>25562.190415978483</v>
+      </c>
+      <c r="BN33" s="5">
+        <f t="shared" si="8"/>
+        <v>25306.568511818699</v>
+      </c>
+      <c r="BO33" s="5">
+        <f t="shared" si="8"/>
+        <v>25053.502826700511</v>
+      </c>
+      <c r="BP33" s="5">
+        <f t="shared" si="8"/>
+        <v>24802.967798433507</v>
+      </c>
+      <c r="BQ33" s="5">
+        <f t="shared" si="8"/>
+        <v>24554.938120449173</v>
+      </c>
+      <c r="BR33" s="5">
+        <f t="shared" si="8"/>
+        <v>24309.388739244681</v>
+      </c>
+      <c r="BS33" s="5">
+        <f t="shared" si="8"/>
+        <v>24066.294851852235</v>
+      </c>
+      <c r="BT33" s="5">
+        <f t="shared" si="8"/>
+        <v>23825.631903333713</v>
+      </c>
+      <c r="BU33" s="5">
+        <f t="shared" si="8"/>
+        <v>23587.375584300375</v>
+      </c>
+      <c r="BV33" s="5">
+        <f t="shared" si="8"/>
+        <v>23351.501828457371</v>
+      </c>
+      <c r="BW33" s="5">
+        <f t="shared" si="8"/>
+        <v>23117.986810172795</v>
+      </c>
+      <c r="BX33" s="5">
+        <f t="shared" si="8"/>
+        <v>22886.806942071067</v>
+      </c>
+      <c r="BY33" s="5">
+        <f t="shared" si="8"/>
+        <v>22657.938872650357</v>
+      </c>
+      <c r="BZ33" s="5">
+        <f t="shared" si="8"/>
+        <v>22431.359483923854</v>
+      </c>
+      <c r="CA33" s="5">
+        <f t="shared" si="8"/>
+        <v>22207.045889084617</v>
+      </c>
+      <c r="CB33" s="5">
+        <f t="shared" si="8"/>
+        <v>21984.975430193772</v>
+      </c>
+      <c r="CC33" s="5">
+        <f t="shared" si="8"/>
+        <v>21765.125675891835</v>
+      </c>
+      <c r="CD33" s="5">
+        <f t="shared" si="8"/>
+        <v>21547.474419132916</v>
+      </c>
+      <c r="CE33" s="5">
+        <f t="shared" si="8"/>
+        <v>21331.999674941588</v>
+      </c>
+      <c r="CF33" s="5">
+        <f t="shared" si="8"/>
+        <v>21118.679678192173</v>
+      </c>
+      <c r="CG33" s="5">
+        <f t="shared" si="8"/>
+        <v>20907.49288141025</v>
+      </c>
+      <c r="CH33" s="5">
+        <f t="shared" si="8"/>
+        <v>20698.417952596148</v>
+      </c>
+      <c r="CI33" s="5">
+        <f t="shared" si="8"/>
+        <v>20491.433773070188</v>
+      </c>
+      <c r="CJ33" s="5">
+        <f t="shared" si="8"/>
+        <v>20286.519435339487</v>
+      </c>
+      <c r="CK33" s="5">
+        <f t="shared" si="8"/>
+        <v>20083.654240986092</v>
+      </c>
+      <c r="CL33" s="5">
+        <f t="shared" si="8"/>
+        <v>19882.817698576229</v>
+      </c>
+      <c r="CM33" s="5">
+        <f t="shared" si="8"/>
+        <v>19683.989521590465</v>
+      </c>
+    </row>
+    <row r="34" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="7">
+        <f t="shared" ref="C34:N34" si="9">+C33/C35</f>
+        <v>1.4047435403008099</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="9"/>
+        <v>1.5545699961434631</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="9"/>
+        <v>1.7871191669880446</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="9"/>
+        <v>1.8175858079444658</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="9"/>
+        <v>1.3112225221750868</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1428846895487852</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2838411106826071</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4411878133436173</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="9"/>
+        <v>1.3839182414192055</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4770536058619359</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="9"/>
+        <v>1.936367142306209</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" si="9"/>
+        <v>2.236791361357501</v>
+      </c>
+      <c r="O34" s="7">
+        <f>+O33/O35</f>
+        <v>2.1105379868877745</v>
+      </c>
+      <c r="P34" s="7">
+        <f>+P33/P35</f>
+        <v>2.0622734284612414</v>
+      </c>
+      <c r="Q34" s="7">
+        <f>+Q33/Q35</f>
+        <v>1.5090759737755495</v>
+      </c>
+      <c r="R34" s="5">
+        <f>+R33/R35</f>
+        <v>1.9913620516775934</v>
+      </c>
+      <c r="X34" s="8">
+        <f>+X33/X35</f>
+        <v>5.2276326094695618</v>
+      </c>
+      <c r="Y34" s="8">
+        <f>+Y33/Y35</f>
+        <v>6.4932360270558922</v>
+      </c>
+      <c r="Z34" s="8">
+        <f>+Z33/Z35</f>
+        <v>6.7335446066215763</v>
+      </c>
+    </row>
+    <row r="35" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="E35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="F35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="G35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="H35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="I35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="J35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="K35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="L35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="M35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="N35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="O35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="P35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="R35" s="5">
+        <v>5186</v>
+      </c>
+      <c r="X35" s="2">
+        <v>5618</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>5618</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="36" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="AB39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="M40" s="6"/>
+      <c r="AB40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" ref="G41:M41" si="10">+G23/C23-1</f>
+        <v>-4.8272328798315001E-2</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.13663399052759118</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.14571075401730527</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.5403140835883788E-2</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="10"/>
+        <v>0.12883545666606855</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="10"/>
+        <v>0.32818779103144724</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="10"/>
+        <v>0.36034263224910301</v>
+      </c>
+      <c r="N41" s="3">
+        <f>+N23/J23-1</f>
+        <v>0.36995515695067271</v>
+      </c>
+      <c r="O41" s="3">
+        <f>+O23/K23-1</f>
+        <v>0.35113654426959151</v>
+      </c>
+      <c r="P41" s="3">
+        <f>+P23/L23-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>+Q23/M23-1</f>
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="R41" s="3">
+        <f>+R23/N23-1</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3">
+        <f>+Y23/X23-1</f>
+        <v>0.29993650610407219</v>
+      </c>
+      <c r="Z41" s="3">
+        <f>+Z23/Y23-1</f>
+        <v>9.033779958482735E-2</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC41" s="9">
+        <f>+NPV(AC40,Y33:CM33)</f>
+        <v>622846.04498886981</v>
+      </c>
+    </row>
+    <row r="42" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="3">
+        <f>+C25/C23</f>
+        <v>0.55632720441737349</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" ref="D42:O42" si="11">+D25/D23</f>
+        <v>0.59059367771781035</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="11"/>
+        <v>0.60425216316440045</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="11"/>
+        <v>0.62214640509758667</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="11"/>
+        <v>0.56325139063341112</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="11"/>
+        <v>0.54111118198634944</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="11"/>
+        <v>0.54259752286144225</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="11"/>
+        <v>0.53037097431716262</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="11"/>
+        <v>0.53065225454352782</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="11"/>
+        <v>0.53174526942656808</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="11"/>
+        <v>0.57832709326072163</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="11"/>
+        <v>0.58997916976640385</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="11"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" ref="P42:R42" si="12">+P25/P23</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="12"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="12"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC42" s="8">
+        <f>+AC41/Main!J4</f>
+        <v>120.10143559368873</v>
+      </c>
+    </row>
+    <row r="43" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="M43" s="6"/>
+      <c r="AB43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>224.42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="M44" s="6"/>
+      <c r="AB44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC44" s="3">
+        <f>+AC42/AC43-1</f>
+        <v>-0.46483630873501136</v>
+      </c>
+    </row>
+    <row r="45" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="2">
+        <v>224</v>
+      </c>
+      <c r="M48" s="6">
+        <v>184</v>
+      </c>
+      <c r="N48" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TSM.xlsx
+++ b/TSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771D641-54BF-4B2B-B37E-DF5280C764D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73287A5-FD58-473A-B0AE-CA9317363330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8805" yWindow="780" windowWidth="18690" windowHeight="14445" activeTab="1" xr2:uid="{F8745C95-78DE-E443-8F9A-05CED30D5E0E}"/>
+    <workbookView xWindow="1140" yWindow="780" windowWidth="25950" windowHeight="14445" activeTab="1" xr2:uid="{F8745C95-78DE-E443-8F9A-05CED30D5E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -419,6 +419,56 @@
         <a:xfrm>
           <a:off x="11495484" y="29766"/>
           <a:ext cx="5953" cy="6447234"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>13138</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F603C4-F3E8-BF05-69A3-909F99B32E98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20764500" y="32845"/>
+          <a:ext cx="6569" cy="6135414"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -761,7 +811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1BEB18-EC38-BD4F-94A3-2D5879B26163}">
-  <dimension ref="I1:N9"/>
+  <dimension ref="I1:N10"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -855,8 +905,13 @@
     </row>
     <row r="9" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J9">
-        <f>+J8/1.41</f>
-        <v>684752.48226950364</v>
+        <f>+J3/I10</f>
+        <v>30.354391371340522</v>
+      </c>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>6.49</v>
       </c>
     </row>
   </sheetData>
@@ -868,11 +923,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E551CAD4-B555-B24B-B808-54335B8F5C59}">
   <dimension ref="A1:CM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomRight" activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/TSM.xlsx
+++ b/TSM.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73287A5-FD58-473A-B0AE-CA9317363330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5653D2AC-B447-450C-9BE9-EA4A62E637CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="780" windowWidth="25950" windowHeight="14445" activeTab="1" xr2:uid="{F8745C95-78DE-E443-8F9A-05CED30D5E0E}"/>
+    <workbookView xWindow="9615" yWindow="2040" windowWidth="18630" windowHeight="11940" activeTab="2" xr2:uid="{F8745C95-78DE-E443-8F9A-05CED30D5E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="News" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Price</t>
   </si>
@@ -296,13 +297,22 @@
   </si>
   <si>
     <t>4nm</t>
+  </si>
+  <si>
+    <t>Blackwell architecture</t>
+  </si>
+  <si>
+    <t>TSMC Intend to expand its investment in the US to 165Bn to power the future of ai</t>
+  </si>
+  <si>
+    <t>LINKED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,6 +350,14 @@
       <family val="2"/>
       <charset val="186"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -358,10 +376,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -372,8 +391,10 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -811,15 +832,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1BEB18-EC38-BD4F-94A3-2D5879B26163}">
-  <dimension ref="I1:N10"/>
+  <dimension ref="B1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
         <v>7</v>
       </c>
@@ -830,7 +851,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
       <c r="L2" s="1">
         <v>25932</v>
       </c>
@@ -842,7 +866,7 @@
         <v>5186.3999999999996</v>
       </c>
     </row>
-    <row r="3" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>0</v>
       </c>
@@ -850,7 +874,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>1</v>
       </c>
@@ -861,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>2</v>
       </c>
@@ -870,7 +894,7 @@
         <v>1021642</v>
       </c>
     </row>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>3</v>
       </c>
@@ -882,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>4</v>
       </c>
@@ -894,7 +918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>5</v>
       </c>
@@ -903,13 +927,13 @@
         <v>965501</v>
       </c>
     </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J9">
         <f>+J3/I10</f>
         <v>30.354391371340522</v>
       </c>
     </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I10">
         <v>6.49</v>
       </c>
@@ -923,11 +947,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E551CAD4-B555-B24B-B808-54335B8F5C59}">
   <dimension ref="A1:CM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T30" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y34" sqref="Y34"/>
+      <selection pane="bottomRight" activeCell="AD40" sqref="AD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2802,4 +2826,32 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2853223-4557-40C0-8D8F-339BF74C1816}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{260B8AB1-1D7D-43D0-8D63-C3A4147C1DBA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>